--- a/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
+++ b/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$B$2:$I$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
   <si>
     <t>Here is the list of trainees scheduled for training at Sonnen on Monday , November 10th , from 10 AM to 6 PM.</t>
   </si>
@@ -96,6 +96,18 @@
     <t>بهتيم</t>
   </si>
   <si>
+    <t>Mahmoud Eid</t>
+  </si>
+  <si>
+    <t>زهراء المعادي</t>
+  </si>
+  <si>
+    <t>سلم صقر قريش</t>
+  </si>
+  <si>
+    <t>unreachable</t>
+  </si>
+  <si>
     <t>training at Sonnen on Monday , November 10th , from 10 AM to 6 PM.</t>
   </si>
   <si>
@@ -126,6 +138,9 @@
     <t>دائري</t>
   </si>
   <si>
+    <t>محمود عيد</t>
+  </si>
+  <si>
     <t>روان طارق</t>
   </si>
   <si>
@@ -136,9 +151,6 @@
   </si>
   <si>
     <t>no answer</t>
-  </si>
-  <si>
-    <t>unreachable</t>
   </si>
   <si>
     <t>Mahmoud Anis</t>
@@ -266,7 +278,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +363,12 @@
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1052,137 +1070,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,6 +1365,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1881,13 +1908,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.7272727272727" customWidth="1"/>
@@ -1987,7 +2014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="15.25" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="53" t="s">
         <v>17</v>
       </c>
@@ -2002,6 +2029,23 @@
       </c>
       <c r="E8" s="31" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="56">
+        <v>1096722821</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2013,13 +2057,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I7"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="B3:H7"/>
+      <selection activeCell="H8" sqref="B3:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="10"/>
     <col min="3" max="3" width="11.7272727272727" customWidth="1"/>
@@ -2032,21 +2076,21 @@
   <sheetData>
     <row r="1" ht="19.25" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="16.25" spans="2:9">
       <c r="B2" s="37" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>1</v>
@@ -2061,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.25" spans="2:9">
+    <row r="3" spans="2:9">
       <c r="B3" s="39">
         <v>0.416666666666667</v>
       </c>
@@ -2072,10 +2116,10 @@
         <v>1001393434</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>7</v>
@@ -2087,7 +2131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15.25" spans="2:9">
+    <row r="4" spans="2:9">
       <c r="B4" s="39">
         <v>0.416666666666667</v>
       </c>
@@ -2098,10 +2142,10 @@
         <v>1008169172</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>7</v>
@@ -2113,7 +2157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="2:9">
+    <row r="5" spans="2:9">
       <c r="B5" s="39">
         <v>0.416666666666667</v>
       </c>
@@ -2124,10 +2168,10 @@
         <v>1146739976</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>15</v>
@@ -2139,7 +2183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="15.25" spans="2:9">
+    <row r="6" spans="2:9">
       <c r="B6" s="39">
         <v>0.416666666666667</v>
       </c>
@@ -2150,13 +2194,13 @@
         <v>1222731354</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>19</v>
@@ -2165,7 +2209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15.25" spans="2:9">
+    <row r="7" spans="2:9">
       <c r="B7" s="39">
         <v>0.416666666666667</v>
       </c>
@@ -2173,27 +2217,53 @@
         <v>0.75</v>
       </c>
       <c r="D7" s="45">
+        <v>1096722821</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="39">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C8" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="45">
         <v>1207281495</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="40" t="s">
+      <c r="E8" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I7" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B2:I7">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I8" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B3:I8">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>
@@ -2223,7 +2293,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
@@ -2246,24 +2316,24 @@
     </row>
     <row r="4" ht="15.25" spans="1:5">
       <c r="A4" s="26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B4" s="27">
         <v>1001473220</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
       <c r="A5" s="29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" s="30">
         <v>1003336191</v>
@@ -2272,7 +2342,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>9</v>
@@ -2280,24 +2350,24 @@
     </row>
     <row r="6" ht="15.25" spans="1:5">
       <c r="A6" s="32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" s="27">
         <v>1069441222</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
       <c r="A7" s="29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="30">
         <v>1018382231</v>
@@ -2314,33 +2384,33 @@
     </row>
     <row r="8" ht="15.25" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" s="27">
         <v>1109165438</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
       <c r="A9" s="29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" s="30">
         <v>1044608425</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>9</v>
@@ -2348,7 +2418,7 @@
     </row>
     <row r="10" ht="15.25" spans="1:5">
       <c r="A10" s="33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" s="34">
         <v>1109165438</v>
@@ -2357,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>9</v>
@@ -2365,16 +2435,16 @@
     </row>
     <row r="11" ht="15.25" spans="1:5">
       <c r="A11" s="35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>9</v>
@@ -2382,7 +2452,7 @@
     </row>
     <row r="12" ht="15.25" spans="1:5">
       <c r="A12" s="35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" s="36">
         <v>1017913776</v>
@@ -2391,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>9</v>
@@ -2399,16 +2469,16 @@
     </row>
     <row r="13" ht="15.25" spans="1:5">
       <c r="A13" s="35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B13" s="36">
         <v>1099307472</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>9</v>
@@ -2416,16 +2486,16 @@
     </row>
     <row r="14" ht="15.25" spans="1:5">
       <c r="A14" s="35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B14" s="36">
         <v>1121670258</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>9</v>
@@ -2460,21 +2530,21 @@
   <sheetData>
     <row r="1" ht="19.25" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" ht="15.25" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -2489,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" ht="15.25" spans="2:9">
       <c r="B3" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2500,22 +2570,22 @@
         <v>1001473220</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="2:9">
       <c r="B4" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2526,22 +2596,22 @@
         <v>1069441222</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="2:9">
       <c r="B5" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2552,22 +2622,22 @@
         <v>1109165438</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="2:9">
       <c r="B6" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2578,22 +2648,22 @@
         <v>1144129655</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="2:9">
       <c r="B7" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2604,22 +2674,22 @@
         <v>1099307472</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="2:9">
       <c r="B8" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2630,22 +2700,22 @@
         <v>1003336191</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="2:9">
       <c r="B9" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2656,10 +2726,10 @@
         <v>1018382231</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>15</v>
@@ -2668,10 +2738,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="2:9">
       <c r="B10" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2682,22 +2752,22 @@
         <v>1121670258</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="2:9">
       <c r="B11" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2708,22 +2778,22 @@
         <v>1109165438</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
+    </row>
+    <row r="12" ht="15.25" spans="2:9">
       <c r="B12" s="12">
         <v>0.666666666666667</v>
       </c>
@@ -2734,22 +2804,22 @@
         <v>1017913776</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="2:9">
       <c r="B13" s="12">
         <v>0.666666666666667</v>
       </c>
@@ -2760,22 +2830,22 @@
         <v>1044608425</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="2:9">
       <c r="B14" s="12">
         <v>0.666666666666667</v>
       </c>
@@ -2783,27 +2853,27 @@
         <v>0</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I14" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I14">
+    <sortState ref="B2:I14">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
+++ b/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$B$2:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$B$2:$I$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
   <si>
     <t>Here is the list of trainees scheduled for training at Sonnen on Monday , November 10th , from 10 AM to 6 PM.</t>
   </si>
@@ -213,6 +213,15 @@
     <t>البوابه التانيه القديمه</t>
   </si>
   <si>
+    <t>Abdallah Soliman</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>المطبعه</t>
+  </si>
+  <si>
     <t>training at Sonnen on Monday, November 10th, from 4 PM to 12 AM</t>
   </si>
   <si>
@@ -250,6 +259,9 @@
   </si>
   <si>
     <t>دهب محمد</t>
+  </si>
+  <si>
+    <t>عبد الله سليمان</t>
   </si>
   <si>
     <t>تبيان أزهري</t>
@@ -278,7 +290,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +335,12 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1070,137 +1088,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,34 +1330,40 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1354,22 +1378,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1924,7 +1948,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1947,7 +1971,7 @@
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="30">
@@ -1964,10 +1988,10 @@
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="52">
         <v>1207281495</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -1998,10 +2022,10 @@
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="54">
         <v>1146739976</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -2014,11 +2038,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="53" t="s">
+    <row r="8" ht="15.25" spans="1:5">
+      <c r="A8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="56">
         <v>1222731354</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -2031,20 +2055,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="55" t="s">
+    <row r="9" ht="15.25" spans="1:5">
+      <c r="A9" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="58">
         <v>1096722821</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="59" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2080,190 +2104,190 @@
       </c>
     </row>
     <row r="2" ht="16.25" spans="2:9">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="39">
+    <row r="3" ht="15.25" spans="2:9">
+      <c r="B3" s="41">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="41">
         <v>0.75</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="42">
         <v>1001393434</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="39">
+    <row r="4" ht="15.25" spans="2:9">
+      <c r="B4" s="41">
         <v>0.416666666666667</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="41">
         <v>0.75</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="42">
         <v>1008169172</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="39">
+    <row r="5" ht="15.25" spans="2:9">
+      <c r="B5" s="41">
         <v>0.416666666666667</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="41">
         <v>0.75</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="45">
         <v>1146739976</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="39">
+    <row r="6" ht="15.25" spans="2:9">
+      <c r="B6" s="41">
         <v>0.416666666666667</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="41">
         <v>0.75</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="47">
         <v>1222731354</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="39">
+    <row r="7" ht="15.25" spans="2:9">
+      <c r="B7" s="41">
         <v>0.416666666666667</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="41">
         <v>0.75</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="47">
         <v>1096722821</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="39">
+    <row r="8" ht="15.25" spans="2:9">
+      <c r="B8" s="41">
         <v>0.416666666666667</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="41">
         <v>0.75</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="47">
         <v>1207281495</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="48" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I8" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I8">
+    <sortState ref="B2:I8">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>
@@ -2276,10 +2300,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="A14:D14"/>
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -2484,7 +2508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="15.25" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="35" t="s">
         <v>56</v>
       </c>
@@ -2498,6 +2522,23 @@
         <v>58</v>
       </c>
       <c r="E14" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="1:5">
+      <c r="A15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1026170107</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2510,10 +2551,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="B3:H14"/>
+      <selection activeCell="H15" sqref="B3:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2530,10 +2571,10 @@
   <sheetData>
     <row r="1" ht="19.25" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" ht="15.25" spans="2:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2559,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.25" spans="2:9">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2573,19 +2614,19 @@
         <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" ht="15.25" spans="2:9">
+    <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2599,19 +2640,19 @@
         <v>28</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="2:9">
+    <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2625,19 +2666,19 @@
         <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="15.25" spans="2:9">
+    <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2651,19 +2692,19 @@
         <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" ht="15.25" spans="2:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2677,7 +2718,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>54</v>
@@ -2689,7 +2730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" ht="15.25" spans="2:9">
+    <row r="8" spans="2:9">
       <c r="B8" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2703,7 +2744,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -2715,7 +2756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="15.25" spans="2:9">
+    <row r="9" spans="2:9">
       <c r="B9" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2729,7 +2770,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>15</v>
@@ -2741,7 +2782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" ht="15.25" spans="2:9">
+    <row r="10" spans="2:9">
       <c r="B10" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2755,7 +2796,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>57</v>
@@ -2767,7 +2808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="15.25" spans="2:9">
+    <row r="11" spans="2:9">
       <c r="B11" s="5">
         <v>0.666666666666667</v>
       </c>
@@ -2775,25 +2816,25 @@
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <v>1109165438</v>
+        <v>1026170107</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="2:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="12">
         <v>0.666666666666667</v>
       </c>
@@ -2801,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <v>1017913776</v>
+        <v>1109165438</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>11</v>
@@ -2816,64 +2857,90 @@
         <v>47</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="12">
         <v>0.666666666666667</v>
       </c>
       <c r="C13" s="13">
         <v>0</v>
       </c>
-      <c r="D13" s="17">
-        <v>1044608425</v>
+      <c r="D13" s="14">
+        <v>1017913776</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="2:9">
+      <c r="F13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="12">
         <v>0.666666666666667</v>
       </c>
       <c r="C14" s="13">
         <v>0</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>49</v>
+      <c r="D14" s="17">
+        <v>1044608425</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="F14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="12">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I15" s="22" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I14" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B2:I14">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I15" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B3:I15">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
+++ b/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$B$2:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$C$2:$J$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="108">
   <si>
     <t>Here is the list of trainees scheduled for training at Sonnen on Monday , November 10th , from 10 AM to 6 PM.</t>
   </si>
@@ -141,9 +144,27 @@
     <t>محمود عيد</t>
   </si>
   <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
     <t>روان طارق</t>
   </si>
   <si>
+    <t>HRID</t>
+  </si>
+  <si>
+    <t>Pick-up Point</t>
+  </si>
+  <si>
+    <t>Shift Start</t>
+  </si>
+  <si>
+    <t>Shift End</t>
+  </si>
+  <si>
+    <t>Sonnen German</t>
+  </si>
+  <si>
     <t>Here is the list of trainees scheduled for training at Sonnen on Monday, November 10th, from 4 PM to 12 AM</t>
   </si>
   <si>
@@ -264,6 +285,9 @@
     <t>عبد الله سليمان</t>
   </si>
   <si>
+    <t>التعاون</t>
+  </si>
+  <si>
     <t>تبيان أزهري</t>
   </si>
   <si>
@@ -277,20 +301,81 @@
   </si>
   <si>
     <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>Sonnen English</t>
+  </si>
+  <si>
+    <t>اول مكرم</t>
+  </si>
+  <si>
+    <t>مسجد السلام</t>
+  </si>
+  <si>
+    <t>Here is the list of trainees scheduled for training at Sonnen (German) on Monday, November 17th, from 9 AM to 6 PM.</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>العبور_ الدائري</t>
+  </si>
+  <si>
+    <t>Doaa Abdelnasser</t>
+  </si>
+  <si>
+    <t>حلوان</t>
+  </si>
+  <si>
+    <t>مدخل المعصره</t>
+  </si>
+  <si>
+    <t>Ezzat Kardossy</t>
+  </si>
+  <si>
+    <t>العبور_الدائري</t>
+  </si>
+  <si>
+    <t>المرج</t>
+  </si>
+  <si>
+    <t>Esraa Eissa</t>
+  </si>
+  <si>
+    <t>جسر السويس</t>
+  </si>
+  <si>
+    <t>ابن الحكم</t>
+  </si>
+  <si>
+    <t>training at Sonnen (German) on Monday, November 17th, from 9 AM to 6 PM.</t>
+  </si>
+  <si>
+    <t>اسراء عيسى</t>
+  </si>
+  <si>
+    <t>دعاء عبد الناصر</t>
+  </si>
+  <si>
+    <t>عزت كردوسي</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,19 +395,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF1F1F1F"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -333,7 +412,34 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -534,7 +640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,13 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF073763"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FF0B5394"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +662,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF073763"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -764,11 +876,131 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -783,7 +1015,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -793,21 +1025,6 @@
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -837,31 +1054,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,10 +1075,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,22 +1090,22 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -912,46 +1114,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,9 +1135,129 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1088,137 +1380,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,177 +1518,261 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1948,127 +2324,127 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="58">
         <v>1001393434</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="81">
         <v>1207281495</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="58">
         <v>1008169172</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="83">
         <v>1146739976</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="85">
         <v>1222731354</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="87">
         <v>1096722821</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2080,14 +2456,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:I8"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="B3:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="10"/>
     <col min="3" max="3" width="11.7272727272727" customWidth="1"/>
@@ -2104,187 +2482,329 @@
       </c>
     </row>
     <row r="2" ht="16.25" spans="2:9">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.25" spans="2:9">
-      <c r="B3" s="41">
+      <c r="B3" s="68">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="68">
         <v>0.75</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="69">
         <v>1001393434</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="2:9">
-      <c r="B4" s="41">
+      <c r="B4" s="68">
         <v>0.416666666666667</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="68">
         <v>0.75</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="69">
         <v>1008169172</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="71" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="2:9">
-      <c r="B5" s="41">
+      <c r="B5" s="68">
         <v>0.416666666666667</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="68">
         <v>0.75</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="72">
         <v>1146739976</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="73" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="2:9">
-      <c r="B6" s="41">
+      <c r="B6" s="68">
         <v>0.416666666666667</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="68">
         <v>0.75</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="74">
         <v>1222731354</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="75" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="2:9">
-      <c r="B7" s="41">
+      <c r="B7" s="68">
         <v>0.416666666666667</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="68">
         <v>0.75</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="74">
         <v>1096722821</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="42" t="s">
+      <c r="G7" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="75" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="2:9">
-      <c r="B8" s="41">
+      <c r="B8" s="68">
         <v>0.416666666666667</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="68">
         <v>0.75</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="74">
         <v>1207281495</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25"/>
+    <row r="11" ht="16" spans="2:7">
+      <c r="B11" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="16" spans="2:7">
+      <c r="B12" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="16" spans="2:7">
+      <c r="B13" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="45">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G13" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="16" spans="2:7">
+      <c r="B14" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="45">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G14" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="16" spans="2:7">
+      <c r="B15" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="45">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G15" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="16" spans="2:7">
+      <c r="B16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="E16" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="45">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G16" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="16" spans="2:7">
+      <c r="B17" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="E17" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="F17" s="45">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G17" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25"/>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I8" etc:filterBottomFollowUsedRange="0">
     <sortState ref="B2:I8">
@@ -2317,228 +2837,228 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="27">
+      <c r="A4" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="55">
         <v>1001473220</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="C4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="56" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="30">
+      <c r="A5" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="58">
         <v>1003336191</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="A6" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="55">
         <v>1069441222</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="C6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="56" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="A7" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="58">
         <v>1018382231</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="55">
         <v>1109165438</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="C8" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="56" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="30">
+      <c r="A9" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="58">
         <v>1044608425</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="34">
+      <c r="A10" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="62">
         <v>1109165438</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="36" t="s">
+      <c r="A11" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="36">
+      <c r="A12" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="64">
         <v>1017913776</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="36" t="s">
+      <c r="D12" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="36">
+      <c r="A13" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="64">
         <v>1099307472</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="C13" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="36">
+    <row r="14" ht="15.25" spans="1:5">
+      <c r="A14" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="64">
         <v>1121670258</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="C14" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="38">
+      <c r="A15" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="64">
         <v>1026170107</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="C15" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="64" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2550,17 +3070,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:I15"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="B3:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="8.36363636363636" customWidth="1"/>
-    <col min="3" max="3" width="9.36363636363636" customWidth="1"/>
+    <col min="2" max="2" width="15.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="14.9090909090909" customWidth="1"/>
     <col min="4" max="4" width="24.9090909090909" customWidth="1"/>
     <col min="5" max="5" width="14.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="14.9090909090909" customWidth="1"/>
@@ -2571,376 +3093,658 @@
   <sheetData>
     <row r="1" ht="19.25" spans="6:6">
       <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" ht="15.25" spans="2:9">
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.25" spans="2:9">
+      <c r="B3" s="28">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1001473220</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="2:9">
+      <c r="B4" s="28">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1069441222</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="2:9">
+      <c r="B5" s="28">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>1109165438</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="2:9">
+      <c r="B6" s="28">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1144129655</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="2:9">
+      <c r="B7" s="28">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1099307472</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="2:9">
+      <c r="B8" s="28">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>1003336191</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="2:9">
+      <c r="B9" s="28">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1018382231</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="2:9">
+      <c r="B10" s="28">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1121670258</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    <row r="11" spans="2:9">
+      <c r="B11" s="28">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1026170107</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="2:9">
+      <c r="B12" s="35">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="37">
+        <v>1109165438</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="2:9">
+      <c r="B13" s="35">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1017913776</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="2:9">
+      <c r="B14" s="35">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1044608425</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="2:9">
+      <c r="B15" s="35">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25"/>
+    <row r="17" ht="15.25" spans="2:7">
+      <c r="B17" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="D17" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="5">
+      <c r="E17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="16" spans="2:7">
+      <c r="B18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="45">
         <v>0.666666666666667</v>
       </c>
-      <c r="C3" s="6">
+      <c r="G18" s="45">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
-        <v>1001473220</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="8" t="s">
+    </row>
+    <row r="19" ht="16" spans="2:7">
+      <c r="B19" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G19" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="16" spans="2:7">
+      <c r="B20" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G20" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="16" spans="2:7">
+      <c r="B21" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G21" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="16" spans="2:7">
+      <c r="B22" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="16" spans="2:7">
+      <c r="B23" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="16" spans="2:7">
+      <c r="B24" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="45">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G24" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="16" spans="2:7">
+      <c r="B25" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="E25" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="5">
+      <c r="F25" s="45">
         <v>0.666666666666667</v>
       </c>
-      <c r="C4" s="6">
+      <c r="G25" s="45">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>1069441222</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5">
+    </row>
+    <row r="26" ht="16" spans="2:7">
+      <c r="B26" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="45">
         <v>0.666666666666667</v>
       </c>
-      <c r="C5" s="6">
+      <c r="G26" s="45">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>1109165438</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="5">
+    </row>
+    <row r="27" ht="16" spans="2:7">
+      <c r="B27" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="45">
         <v>0.666666666666667</v>
       </c>
-      <c r="C6" s="6">
+      <c r="G27" s="45">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
-        <v>1144129655</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="5">
+    </row>
+    <row r="28" ht="16" spans="2:7">
+      <c r="B28" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="45">
         <v>0.666666666666667</v>
       </c>
-      <c r="C7" s="6">
+      <c r="G28" s="45">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
-        <v>1099307472</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="5">
+    </row>
+    <row r="29" ht="16" spans="2:7">
+      <c r="B29" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="45">
         <v>0.666666666666667</v>
       </c>
-      <c r="C8" s="6">
+      <c r="G29" s="45">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>1003336191</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="5">
+    </row>
+    <row r="30" ht="16" spans="2:7">
+      <c r="B30" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="45">
         <v>0.666666666666667</v>
       </c>
-      <c r="C9" s="6">
+      <c r="G30" s="45">
         <v>0</v>
       </c>
-      <c r="D9" s="7">
-        <v>1018382231</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="5">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1121670258</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="5">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1026170107</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="12">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1109165438</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="12">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1017913776</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="12">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1044608425</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="12">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
+    </row>
+    <row r="31" ht="15.25"/>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I15" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I15">
+    <sortState ref="B2:I15">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>
@@ -2948,4 +3752,280 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="11.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="11.0272727272727" customWidth="1"/>
+    <col min="4" max="4" width="10.4636363636364" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" ht="15.25"/>
+    <row r="3" ht="15.25" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1146739976</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="1:5">
+      <c r="A5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1222731354</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="1:5">
+      <c r="A6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1158607339</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="1:5">
+      <c r="A7" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1118317055</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="1:5">
+      <c r="A8" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1093220827</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="C1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="3" max="3" width="11.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="14.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="11.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="14.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="11.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="17.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="10.4636363636364" customWidth="1"/>
+    <col min="10" max="10" width="17.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.25" spans="7:7">
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10">
+      <c r="C3" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1093220827</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="C4" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1158607339</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1118317055</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C2:J5" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="C2:J5">
+      <sortCondition ref="H2"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
+++ b/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="109">
   <si>
     <t>Here is the list of trainees scheduled for training at Sonnen on Monday , November 10th , from 10 AM to 6 PM.</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>اكاديمية السادات</t>
   </si>
   <si>
     <t>Sonnen English</t>
@@ -3330,7 +3333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" ht="15.25" spans="2:9">
       <c r="B11" s="28">
         <v>0.666666666666667</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="15.25" spans="2:9">
+    <row r="15" spans="2:9">
       <c r="B15" s="35">
         <v>0.666666666666667</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>87</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I15" s="50" t="s">
         <v>54</v>
@@ -3483,7 +3486,7 @@
     </row>
     <row r="18" ht="16" spans="2:7">
       <c r="B18" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>69</v>
@@ -3503,7 +3506,7 @@
     </row>
     <row r="19" ht="16" spans="2:7">
       <c r="B19" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>71</v>
@@ -3523,7 +3526,7 @@
     </row>
     <row r="20" ht="16" spans="2:7">
       <c r="B20" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>72</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="21" ht="16" spans="2:7">
       <c r="B21" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>73</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="22" ht="16" spans="2:7">
       <c r="B22" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>77</v>
@@ -3583,7 +3586,7 @@
     </row>
     <row r="23" ht="16" spans="2:7">
       <c r="B23" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>78</v>
@@ -3603,7 +3606,7 @@
     </row>
     <row r="24" ht="16" spans="2:7">
       <c r="B24" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>79</v>
@@ -3623,7 +3626,7 @@
     </row>
     <row r="25" ht="16" spans="2:7">
       <c r="B25" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>80</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="26" ht="16" spans="2:7">
       <c r="B26" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>81</v>
@@ -3663,7 +3666,7 @@
     </row>
     <row r="27" ht="16" spans="2:7">
       <c r="B27" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>72</v>
@@ -3672,7 +3675,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27" s="45">
         <v>0.666666666666667</v>
@@ -3683,7 +3686,7 @@
     </row>
     <row r="28" ht="16" spans="2:7">
       <c r="B28" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>83</v>
@@ -3692,7 +3695,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" s="45">
         <v>0.666666666666667</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="29" ht="16" spans="2:7">
       <c r="B29" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>84</v>
@@ -3723,7 +3726,7 @@
     </row>
     <row r="30" ht="16" spans="2:7">
       <c r="B30" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>86</v>
@@ -3774,7 +3777,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
@@ -3786,13 +3789,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
@@ -3820,7 +3823,7 @@
         <v>1222731354</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>19</v>
@@ -3831,16 +3834,16 @@
     </row>
     <row r="6" ht="15.25" spans="1:5">
       <c r="A6" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="23">
         <v>1158607339</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>9</v>
@@ -3848,16 +3851,16 @@
     </row>
     <row r="7" ht="15.25" spans="1:5">
       <c r="A7" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="20">
         <v>1118317055</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>9</v>
@@ -3865,16 +3868,16 @@
     </row>
     <row r="8" ht="15.25" spans="1:5">
       <c r="A8" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="24">
         <v>1093220827</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>9</v>
@@ -3911,7 +3914,7 @@
   <sheetData>
     <row r="1" ht="19.25" spans="7:7">
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="3:10">
@@ -3931,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
@@ -3954,16 +3957,16 @@
         <v>28</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="3:10">
@@ -3980,19 +3983,19 @@
         <v>28</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="3:10">
       <c r="C5" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -4006,16 +4009,16 @@
         <v>28</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
+++ b/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet4!$B$2:$I$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$B$2:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$B$2:$I$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3503,7 +3503,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B3:H11"/>
@@ -3551,12 +3551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.25" spans="2:9">
+    <row r="3" spans="2:9">
       <c r="B3" s="4">
         <v>0.416666666666667</v>
       </c>
       <c r="C3" s="4">
-        <v>0.75</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="D3" s="5">
         <v>1001393434</v>
@@ -3577,12 +3577,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" ht="15.25" spans="2:9">
+    <row r="4" spans="2:9">
       <c r="B4" s="4">
         <v>0.416666666666667</v>
       </c>
       <c r="C4" s="4">
-        <v>0.75</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="D4" s="5">
         <v>1008169172</v>
@@ -3603,7 +3603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="2:9">
+    <row r="5" spans="2:9">
       <c r="B5" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" ht="15.25" spans="2:9">
+    <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="C8" s="4">
-        <v>0.75</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="D8" s="10">
         <v>1207281495</v>
@@ -3733,7 +3733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" ht="15.25" spans="2:9">
       <c r="B10" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" ht="15.25" spans="2:9">
       <c r="B11" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -3785,10 +3785,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1" ht="15.25"/>
+    <row r="15" ht="15.25"/>
     <row r="16" customFormat="1" ht="16" spans="2:7">
       <c r="B16" s="12" t="s">
         <v>61</v>
@@ -3829,7 +3826,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" ht="16" spans="2:7">
       <c r="B18" s="14" t="s">
         <v>107</v>
       </c>
@@ -3849,7 +3846,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" ht="16" spans="2:7">
       <c r="B19" s="14" t="s">
         <v>107</v>
       </c>
@@ -3869,7 +3866,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" ht="16" spans="2:7">
       <c r="B20" s="14" t="s">
         <v>107</v>
       </c>
@@ -3889,7 +3886,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" ht="16" spans="2:7">
       <c r="B21" s="14" t="s">
         <v>107</v>
       </c>
@@ -3909,7 +3906,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" ht="16" spans="2:7">
       <c r="B22" s="14" t="s">
         <v>107</v>
       </c>
@@ -3929,9 +3926,10 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="23" ht="15.25"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I8" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B2:I8">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I11" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B2:I11">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
+++ b/Accounts-Schedules/تدريب سونين 10-11-2025.xlsx
@@ -3506,7 +3506,7 @@
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B3:H11"/>
+      <selection activeCell="B3" sqref="B3:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" ht="15.25" spans="2:9">
       <c r="B3" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" ht="15.25" spans="2:9">
       <c r="B4" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" ht="15.25" spans="2:9">
       <c r="B5" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4">
-        <v>0.416666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C8" s="4">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D8" s="10">
         <v>1207281495</v>
